--- a/biology/Botanique/Brocchinia_serrata/Brocchinia_serrata.xlsx
+++ b/biology/Botanique/Brocchinia_serrata/Brocchinia_serrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brocchinia serrata est une espèce de plantes de la famille des Bromeliaceae, endémique de Colombie.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sequencia serrata (L.B.Sm.) Givnish[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sequencia serrata (L.B.Sm.) Givnish.</t>
         </is>
       </c>
     </row>
@@ -541,9 +555,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon des résultats de recherches sur son ADN publiées en 2007, l'espèce n'appartiendrait pas au genre Brocchinia et ses auteurs la placent désormais dans un genre monotypique, Sequencia qui tire son nom de sa « séquence » d'ADN[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon des résultats de recherches sur son ADN publiées en 2007, l'espèce n'appartiendrait pas au genre Brocchinia et ses auteurs la placent désormais dans un genre monotypique, Sequencia qui tire son nom de sa « séquence » d'ADN.
 </t>
         </is>
       </c>
@@ -572,9 +588,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique de Colombie[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique de Colombie.
 </t>
         </is>
       </c>
@@ -603,9 +621,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est hémicryptophyte[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est hémicryptophyte.
 </t>
         </is>
       </c>
